--- a/biology/Botanique/Pavonia_(plante)/Pavonia_(plante).xlsx
+++ b/biology/Botanique/Pavonia_(plante)/Pavonia_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pavonia est un genre de plantes à fleurs de la famille des mauves, les Malvacées[2]. Le nom générique honore le botaniste espagnol José Antonio Pavón Jiménez (1754-1844)[3].
-Plusieurs espèces sont connues sous des noms communs de guimauve[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pavonia est un genre de plantes à fleurs de la famille des mauves, les Malvacées. Le nom générique honore le botaniste espagnol José Antonio Pavón Jiménez (1754-1844).
+Plusieurs espèces sont connues sous des noms communs de guimauve.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Noms de quelques espèces acceptées, parmi plus de 250 espèces (référence: The Plant List[4])
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Noms de quelques espèces acceptées, parmi plus de 250 espèces (référence: The Plant List)
 Pavonia arabica  Hochst. &amp; Steud. ex Boiss.
 Pavonia burchellii (DC.) R. A. Dyer
 Pavonia fruticosa (Mill.) Fawc. Et Rendle – anamu
@@ -527,11 +541,79 @@
 Pavonia rosengurttii Krapov. Et Cristóbal
 Pavonia spinifex (L.) Cav.  –
 Pavonia strictiflora (Hooker.) Fryxell
-Pavonia urens Cav. [5],[6]
-Espèce anciennement placée dans ce genre
-Hibiscus platanifolius (Willd.) Sweet (comme P. platanifolia Willd.)[5]
-Hybride
-Pavonia ×gledhillii Cheek, 1989 (Pavonia makoyana × Pavonia multiflora)
+Pavonia urens Cav. ,</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pavonia_(plante)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pavonia_(plante)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Quelques espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèce anciennement placée dans ce genre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hibiscus platanifolius (Willd.) Sweet (comme P. platanifolia Willd.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pavonia_(plante)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pavonia_(plante)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hybride</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pavonia ×gledhillii Cheek, 1989 (Pavonia makoyana × Pavonia multiflora)
 </t>
         </is>
       </c>
